--- a/sdtt_inputs/course_data.xlsx
+++ b/sdtt_inputs/course_data.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55835114c1b5d5ed/Desktop/tt.1/sdtt_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{6B2CCA6C-1386-4521-AA47-39F7B70D0C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E506FFD5-E742-4581-9A06-FDDBAC1CFAE2}"/>
+  <xr:revisionPtr revIDLastSave="406" documentId="8_{6B2CCA6C-1386-4521-AA47-39F7B70D0C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACF656A2-31E9-418F-9486-31BC1603DB38}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{38980051-E2A4-4901-953D-EE8D76F9AD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="course data" sheetId="1" r:id="rId1"/>
+    <sheet name="Elective data" sheetId="2" r:id="rId2"/>
+    <sheet name="Minor data" sheetId="3" r:id="rId3"/>
+    <sheet name="7th sem " sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="252">
   <si>
     <t>Course Code</t>
   </si>
@@ -423,10 +426,373 @@
     <t>HS303</t>
   </si>
   <si>
+    <t>2-0-1-0-3</t>
+  </si>
+  <si>
+    <t>2-0-0-0-4</t>
+  </si>
+  <si>
+    <t>2-0-2-0-2</t>
+  </si>
+  <si>
     <t>2-1-0-0-4</t>
   </si>
   <si>
-    <t>2-0-1-0-3</t>
+    <t>COURSE CODE</t>
+  </si>
+  <si>
+    <t>COURSE NAME</t>
+  </si>
+  <si>
+    <t>FACULTY</t>
+  </si>
+  <si>
+    <t>SEMESTER</t>
+  </si>
+  <si>
+    <t>PH151</t>
+  </si>
+  <si>
+    <t>DS151</t>
+  </si>
+  <si>
+    <t>HS157</t>
+  </si>
+  <si>
+    <t>HS156</t>
+  </si>
+  <si>
+    <t>CS151</t>
+  </si>
+  <si>
+    <t>Introduction to quantum physics</t>
+  </si>
+  <si>
+    <t>Linex for Engineers</t>
+  </si>
+  <si>
+    <t>Computational Musicology</t>
+  </si>
+  <si>
+    <t>Holistic personality development</t>
+  </si>
+  <si>
+    <t>Introduction to CyberSecurity</t>
+  </si>
+  <si>
+    <t>Ravi Shankar</t>
+  </si>
+  <si>
+    <t>Vivek Raj</t>
+  </si>
+  <si>
+    <t>Chandrika kamat</t>
+  </si>
+  <si>
+    <t>Rajesh NS</t>
+  </si>
+  <si>
+    <t>Girish</t>
+  </si>
+  <si>
+    <t>EC251</t>
+  </si>
+  <si>
+    <t>EC252</t>
+  </si>
+  <si>
+    <t>CS152</t>
+  </si>
+  <si>
+    <t>ASD352</t>
+  </si>
+  <si>
+    <t>CS251</t>
+  </si>
+  <si>
+    <t>Electronic system design</t>
+  </si>
+  <si>
+    <t>Introduction to RFIC</t>
+  </si>
+  <si>
+    <t>Data science with python</t>
+  </si>
+  <si>
+    <t>User interaction and experience design</t>
+  </si>
+  <si>
+    <t>2D computer graphics</t>
+  </si>
+  <si>
+    <t>pankaj</t>
+  </si>
+  <si>
+    <t>Rajesh kumar</t>
+  </si>
+  <si>
+    <t>Abdul Wahid</t>
+  </si>
+  <si>
+    <t>Sandesh P</t>
+  </si>
+  <si>
+    <t>E1-CS463</t>
+  </si>
+  <si>
+    <t>E1-CS308</t>
+  </si>
+  <si>
+    <t>E1-DS301</t>
+  </si>
+  <si>
+    <t>E1-CS366</t>
+  </si>
+  <si>
+    <t>Parallel Computing</t>
+  </si>
+  <si>
+    <t>Compiler Design</t>
+  </si>
+  <si>
+    <t>Graphs and social network</t>
+  </si>
+  <si>
+    <t>Advanced algorithm design</t>
+  </si>
+  <si>
+    <t>Pramod</t>
+  </si>
+  <si>
+    <t>Pavan Kumar</t>
+  </si>
+  <si>
+    <t>Utkarsh K</t>
+  </si>
+  <si>
+    <t>Suvadip</t>
+  </si>
+  <si>
+    <t>E2-DS359</t>
+  </si>
+  <si>
+    <t>E2-EC355</t>
+  </si>
+  <si>
+    <t>E2-EC364</t>
+  </si>
+  <si>
+    <t>E2-CS352</t>
+  </si>
+  <si>
+    <t>E2-ADS352</t>
+  </si>
+  <si>
+    <t>E2-EC365</t>
+  </si>
+  <si>
+    <t>Full stack Development</t>
+  </si>
+  <si>
+    <t>Internet of things</t>
+  </si>
+  <si>
+    <t>Semiconductor Device Modeling</t>
+  </si>
+  <si>
+    <t>Cryptography and Infermation security</t>
+  </si>
+  <si>
+    <t>AI in Biomedical Signal Interpretation</t>
+  </si>
+  <si>
+    <t>Manjunath</t>
+  </si>
+  <si>
+    <t>Prakash pawar</t>
+  </si>
+  <si>
+    <t>pankaj kumar</t>
+  </si>
+  <si>
+    <t>Rajendra Hegadi</t>
+  </si>
+  <si>
+    <t>Shibashankar Padhy</t>
+  </si>
+  <si>
+    <t>REGISTERED STUDENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINOR COURSE </t>
+  </si>
+  <si>
+    <t>Generative Ai</t>
+  </si>
+  <si>
+    <t>Cybersecurity</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>VLSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantum Imformation </t>
+  </si>
+  <si>
+    <t>UG Research Experience</t>
+  </si>
+  <si>
+    <t>Innovation and Experience</t>
+  </si>
+  <si>
+    <t>7B1</t>
+  </si>
+  <si>
+    <t>7B2</t>
+  </si>
+  <si>
+    <t>7B3</t>
+  </si>
+  <si>
+    <t>7B4</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BASKET</t>
+  </si>
+  <si>
+    <t>DS456</t>
+  </si>
+  <si>
+    <t>EC456</t>
+  </si>
+  <si>
+    <t>DS401</t>
+  </si>
+  <si>
+    <t>COURSE</t>
+  </si>
+  <si>
+    <t>Cybersecurity Techniques</t>
+  </si>
+  <si>
+    <t>Reinforcement learning</t>
+  </si>
+  <si>
+    <t>Health care data analytics</t>
+  </si>
+  <si>
+    <t>Dibhyajyothi</t>
+  </si>
+  <si>
+    <t>Girish DN</t>
+  </si>
+  <si>
+    <t>EC462</t>
+  </si>
+  <si>
+    <t>EC465</t>
+  </si>
+  <si>
+    <t>PH454</t>
+  </si>
+  <si>
+    <t>Generative AI</t>
+  </si>
+  <si>
+    <t>Hands on CMOS analog and RF design</t>
+  </si>
+  <si>
+    <t>User interactions and Experience Design</t>
+  </si>
+  <si>
+    <t>Quantum AI</t>
+  </si>
+  <si>
+    <t>Chimnaynanda</t>
+  </si>
+  <si>
+    <t>Rajesh Kumar</t>
+  </si>
+  <si>
+    <t>Aswath Babu</t>
+  </si>
+  <si>
+    <t>CS457</t>
+  </si>
+  <si>
+    <t>DS458</t>
+  </si>
+  <si>
+    <t>CS468</t>
+  </si>
+  <si>
+    <t>CS473</t>
+  </si>
+  <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>Agentic AI</t>
+  </si>
+  <si>
+    <t>Imformational Retrival</t>
+  </si>
+  <si>
+    <t>Cloud SRE and Security</t>
+  </si>
+  <si>
+    <t>Shirshendu Layek</t>
+  </si>
+  <si>
+    <t>Sunil Saumya</t>
+  </si>
+  <si>
+    <t>Krishnendu</t>
+  </si>
+  <si>
+    <t>Malay Kumar</t>
+  </si>
+  <si>
+    <t>CS470</t>
+  </si>
+  <si>
+    <t>DS102</t>
+  </si>
+  <si>
+    <t>MA452</t>
+  </si>
+  <si>
+    <t>EC463</t>
+  </si>
+  <si>
+    <t>AI for Cybersecurity</t>
+  </si>
+  <si>
+    <t>Finanace and Accounting</t>
+  </si>
+  <si>
+    <t>Operation research</t>
+  </si>
+  <si>
+    <t>Neural Networks</t>
+  </si>
+  <si>
+    <t>Anushree</t>
+  </si>
+  <si>
+    <t>Anand Barangi</t>
+  </si>
+  <si>
+    <t>Jagadish DN</t>
   </si>
 </sst>
 </file>
@@ -497,10 +863,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -800,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D0BC86-F636-45E5-86C4-2716B7FED0C5}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="48" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1018,7 +1380,7 @@
         <v>160</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1035,7 +1397,7 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1044,7 +1406,7 @@
         <v>160</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1148,7 +1510,7 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1264,7 +1626,7 @@
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1406,7 +1768,7 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -1432,7 +1794,7 @@
         <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -1626,7 +1988,7 @@
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F29" s="3">
         <v>2</v>
@@ -1846,7 +2208,7 @@
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F37" s="3">
         <v>2</v>
@@ -1956,7 +2318,7 @@
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F41" s="3">
         <v>4</v>
@@ -1979,7 +2341,7 @@
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F42" s="3">
         <v>4</v>
@@ -2173,7 +2535,7 @@
         <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F49" s="3">
         <v>2</v>
@@ -2344,7 +2706,7 @@
         <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -2454,7 +2816,7 @@
         <v>23</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="F59">
         <v>4</v>
@@ -2483,7 +2845,7 @@
         <v>23</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="F60">
         <v>4</v>
@@ -2512,7 +2874,7 @@
         <v>23</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -2538,7 +2900,7 @@
         <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F62">
         <v>4</v>
@@ -2561,7 +2923,7 @@
         <v>23</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F63">
         <v>4</v>
@@ -2571,6 +2933,927 @@
       </c>
       <c r="I63" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59886F19-25C5-4BFB-9CE5-54C45AF1D8BC}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView zoomScale="71" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABACDF4-255F-41AF-BBBD-7B24C0AE5D3B}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BFB205-30FF-4AD8-9B18-2994BB5DC1D6}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
